--- a/database/industries/folad/fejahan/balancesheet/yearly.xlsx
+++ b/database/industries/folad/fejahan/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAF9E1D-0D97-4D4A-AC31-95DC5F3C698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685075D-AC60-4E5B-875F-AA7D294DF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>6071323</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1985670</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>14994830</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>52254992</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>4240477</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>79547292</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>5520906</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>60948007</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>3186325</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>2036902</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>71692140</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>151239432</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>50241896</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>8568084</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>24942894</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>83752874</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>481407</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>346081</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>319462</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1146950</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>84899824</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1885633</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>24453975</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>66339608</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>151239432</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/folad/fejahan/balancesheet/yearly.xlsx
+++ b/database/industries/folad/fejahan/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685075D-AC60-4E5B-875F-AA7D294DF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64233B-186C-401B-B956-4C713710DF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-08</t>
-  </si>
-  <si>
     <t>1400-06-08 (2)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-03-18 (10)</t>
   </si>
   <si>
-    <t>1401-10-29 (8)</t>
+    <t>1402-02-28 (9)</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,28 +842,28 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>124295</v>
+        <v>875806</v>
       </c>
       <c r="E12" s="15">
-        <v>875806</v>
+        <v>1264656</v>
       </c>
       <c r="F12" s="15">
-        <v>1264656</v>
+        <v>4686819</v>
       </c>
       <c r="G12" s="15">
-        <v>4686819</v>
+        <v>6071323</v>
       </c>
       <c r="H12" s="15">
-        <v>6071323</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2372405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -878,76 +878,76 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>1985670</v>
       </c>
       <c r="H13" s="11">
-        <v>1985670</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1360979</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1272234</v>
+        <v>2793629</v>
       </c>
       <c r="E14" s="15">
-        <v>2793629</v>
+        <v>7356874</v>
       </c>
       <c r="F14" s="15">
-        <v>7356874</v>
+        <v>5057467</v>
       </c>
       <c r="G14" s="15">
-        <v>5057467</v>
+        <v>14994830</v>
       </c>
       <c r="H14" s="15">
-        <v>14994830</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21969718</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1156317</v>
+        <v>2811154</v>
       </c>
       <c r="E15" s="11">
-        <v>2811154</v>
+        <v>5545157</v>
       </c>
       <c r="F15" s="11">
-        <v>5545157</v>
+        <v>18144821</v>
       </c>
       <c r="G15" s="11">
-        <v>18144821</v>
+        <v>51991194</v>
       </c>
       <c r="H15" s="11">
-        <v>52254992</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>53465286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>135938</v>
       </c>
       <c r="E16" s="15">
-        <v>135938</v>
+        <v>748586</v>
       </c>
       <c r="F16" s="15">
-        <v>748586</v>
+        <v>3920901</v>
       </c>
       <c r="G16" s="15">
-        <v>3920901</v>
+        <v>4240477</v>
       </c>
       <c r="H16" s="15">
-        <v>4240477</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9825063</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,28 +968,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>2552846</v>
+        <v>6616527</v>
       </c>
       <c r="E18" s="17">
-        <v>6616527</v>
+        <v>14915273</v>
       </c>
       <c r="F18" s="17">
-        <v>14915273</v>
+        <v>31810008</v>
       </c>
       <c r="G18" s="17">
-        <v>31810008</v>
+        <v>79283494</v>
       </c>
       <c r="H18" s="17">
-        <v>79547292</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>88993451</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,28 +1010,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1346080</v>
+        <v>1615973</v>
       </c>
       <c r="E20" s="15">
-        <v>1615973</v>
+        <v>2206138</v>
       </c>
       <c r="F20" s="15">
-        <v>2206138</v>
+        <v>3232478</v>
       </c>
       <c r="G20" s="15">
-        <v>3232478</v>
+        <v>5520906</v>
       </c>
       <c r="H20" s="15">
-        <v>5520906</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11936798</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,49 +1052,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>17656615</v>
+        <v>30100272</v>
       </c>
       <c r="E22" s="15">
-        <v>30100272</v>
+        <v>37347448</v>
       </c>
       <c r="F22" s="15">
-        <v>37347448</v>
+        <v>38465023</v>
       </c>
       <c r="G22" s="15">
-        <v>38465023</v>
+        <v>61211804</v>
       </c>
       <c r="H22" s="15">
-        <v>60948007</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>104061901</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>326747</v>
+        <v>1181758</v>
       </c>
       <c r="E23" s="11">
-        <v>1181758</v>
+        <v>1180584</v>
       </c>
       <c r="F23" s="11">
-        <v>1180584</v>
+        <v>3149073</v>
       </c>
       <c r="G23" s="11">
-        <v>3149073</v>
+        <v>3186325</v>
       </c>
       <c r="H23" s="11">
-        <v>3186325</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3198987</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,70 +1115,70 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>16224</v>
+        <v>395462</v>
       </c>
       <c r="E25" s="11">
-        <v>395462</v>
+        <v>394625</v>
       </c>
       <c r="F25" s="11">
-        <v>394625</v>
+        <v>1595969</v>
       </c>
       <c r="G25" s="11">
-        <v>1595969</v>
+        <v>2036902</v>
       </c>
       <c r="H25" s="11">
-        <v>2036902</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3083465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>19345666</v>
+        <v>33293465</v>
       </c>
       <c r="E26" s="17">
-        <v>33293465</v>
+        <v>41128795</v>
       </c>
       <c r="F26" s="17">
-        <v>41128795</v>
+        <v>46442543</v>
       </c>
       <c r="G26" s="17">
-        <v>46442543</v>
+        <v>71955937</v>
       </c>
       <c r="H26" s="17">
-        <v>71692140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>122281151</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>21898512</v>
+        <v>39909992</v>
       </c>
       <c r="E27" s="19">
-        <v>39909992</v>
+        <v>56044068</v>
       </c>
       <c r="F27" s="19">
-        <v>56044068</v>
+        <v>78252551</v>
       </c>
       <c r="G27" s="19">
-        <v>78252551</v>
+        <v>151239431</v>
       </c>
       <c r="H27" s="19">
-        <v>151239432</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>211274602</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,28 +1189,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>6451298</v>
+        <v>21268510</v>
       </c>
       <c r="E29" s="15">
-        <v>21268510</v>
+        <v>25425310</v>
       </c>
       <c r="F29" s="15">
-        <v>25425310</v>
+        <v>13174950</v>
       </c>
       <c r="G29" s="15">
-        <v>13174950</v>
+        <v>46889605</v>
       </c>
       <c r="H29" s="15">
-        <v>50241896</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>78485141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,37 +1231,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>18718</v>
+        <v>263768</v>
       </c>
       <c r="E31" s="15">
-        <v>263768</v>
+        <v>595680</v>
       </c>
       <c r="F31" s="15">
-        <v>595680</v>
+        <v>1388152</v>
       </c>
       <c r="G31" s="15">
-        <v>1388152</v>
+        <v>8568083</v>
       </c>
       <c r="H31" s="15">
-        <v>8568084</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5403537</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>0</v>
+        <v>5139</v>
       </c>
       <c r="E32" s="11">
-        <v>5139</v>
+        <v>0</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>197402</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,34 +1294,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>2866772</v>
+        <v>4789933</v>
       </c>
       <c r="E34" s="11">
-        <v>4789933</v>
+        <v>5142608</v>
       </c>
       <c r="F34" s="11">
-        <v>5142608</v>
+        <v>3377672</v>
       </c>
       <c r="G34" s="11">
-        <v>3377672</v>
+        <v>24942893</v>
       </c>
       <c r="H34" s="11">
-        <v>24942894</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19516272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>54324</v>
+        <v>0</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>0</v>
+        <v>3352292</v>
       </c>
       <c r="H35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7535687</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>9391112</v>
+        <v>26327350</v>
       </c>
       <c r="E37" s="17">
-        <v>26327350</v>
+        <v>31163598</v>
       </c>
       <c r="F37" s="17">
-        <v>31163598</v>
+        <v>17940774</v>
       </c>
       <c r="G37" s="17">
-        <v>17940774</v>
+        <v>83752873</v>
       </c>
       <c r="H37" s="17">
-        <v>83752874</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>111138039</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1393,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>481407</v>
       </c>
       <c r="H38" s="11">
-        <v>481407</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1420,91 +1420,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>3601103</v>
+        <v>2848012</v>
       </c>
       <c r="E40" s="11">
-        <v>2848012</v>
+        <v>2254455</v>
       </c>
       <c r="F40" s="11">
-        <v>2254455</v>
+        <v>1301357</v>
       </c>
       <c r="G40" s="11">
-        <v>1301357</v>
+        <v>346081</v>
       </c>
       <c r="H40" s="11">
-        <v>346081</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>34323</v>
+        <v>65793</v>
       </c>
       <c r="E41" s="15">
-        <v>65793</v>
+        <v>110817</v>
       </c>
       <c r="F41" s="15">
-        <v>110817</v>
+        <v>174130</v>
       </c>
       <c r="G41" s="15">
-        <v>174130</v>
+        <v>319462</v>
       </c>
       <c r="H41" s="15">
-        <v>319462</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>615443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>3635426</v>
+        <v>2913805</v>
       </c>
       <c r="E42" s="19">
-        <v>2913805</v>
+        <v>2365272</v>
       </c>
       <c r="F42" s="19">
-        <v>2365272</v>
+        <v>1475487</v>
       </c>
       <c r="G42" s="19">
-        <v>1475487</v>
+        <v>1146950</v>
       </c>
       <c r="H42" s="19">
-        <v>1146950</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>615443</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>13026538</v>
+        <v>29241155</v>
       </c>
       <c r="E43" s="17">
-        <v>29241155</v>
+        <v>33528870</v>
       </c>
       <c r="F43" s="17">
-        <v>33528870</v>
+        <v>19416261</v>
       </c>
       <c r="G43" s="17">
-        <v>19416261</v>
+        <v>84899823</v>
       </c>
       <c r="H43" s="17">
-        <v>84899824</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>111753482</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,28 +1515,28 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>7000000</v>
+        <v>8500000</v>
       </c>
       <c r="E45" s="15">
         <v>8500000</v>
       </c>
       <c r="F45" s="15">
-        <v>8500000</v>
+        <v>40000000</v>
       </c>
       <c r="G45" s="15">
         <v>40000000</v>
       </c>
       <c r="H45" s="15">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>75000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="F47" s="15">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,28 +1620,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>121751</v>
+        <v>216594</v>
       </c>
       <c r="E50" s="11">
-        <v>216594</v>
+        <v>319412</v>
       </c>
       <c r="F50" s="11">
-        <v>319412</v>
+        <v>1140467</v>
       </c>
       <c r="G50" s="11">
-        <v>1140467</v>
+        <v>1885633</v>
       </c>
       <c r="H50" s="11">
-        <v>1885633</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3014708</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,70 +1746,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1750223</v>
+        <v>1952243</v>
       </c>
       <c r="E56" s="11">
-        <v>1952243</v>
+        <v>3695786</v>
       </c>
       <c r="F56" s="11">
-        <v>3695786</v>
+        <v>17695823</v>
       </c>
       <c r="G56" s="11">
-        <v>17695823</v>
+        <v>24453975</v>
       </c>
       <c r="H56" s="11">
-        <v>24453975</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21506412</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>8871974</v>
+        <v>10668837</v>
       </c>
       <c r="E57" s="17">
-        <v>10668837</v>
+        <v>22515198</v>
       </c>
       <c r="F57" s="17">
-        <v>22515198</v>
+        <v>58836290</v>
       </c>
       <c r="G57" s="17">
-        <v>58836290</v>
+        <v>66339608</v>
       </c>
       <c r="H57" s="17">
-        <v>66339608</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>99521120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>21898512</v>
+        <v>39909992</v>
       </c>
       <c r="E58" s="19">
-        <v>39909992</v>
+        <v>56044068</v>
       </c>
       <c r="F58" s="19">
-        <v>56044068</v>
+        <v>78252551</v>
       </c>
       <c r="G58" s="19">
-        <v>78252551</v>
+        <v>151239431</v>
       </c>
       <c r="H58" s="19">
-        <v>151239432</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>211274602</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
